--- a/output/part3/6. out_of_sample_vw_sheet.xlsx
+++ b/output/part3/6. out_of_sample_vw_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01249574383786259</v>
+        <v>-0.01249574383786259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03910123905779159</v>
+        <v>-0.03910123905779159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06842745865230829</v>
+        <v>-0.06842745865230829</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09397004128856955</v>
+        <v>-0.09397004128856955</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.788489612291358</v>
+        <v>-1.788489612291358</v>
       </c>
       <c r="C3" t="n">
-        <v>2.962844733051786</v>
+        <v>-2.962844733051786</v>
       </c>
       <c r="D3" t="n">
-        <v>4.196252988628872</v>
+        <v>-4.196252988628872</v>
       </c>
       <c r="E3" t="n">
-        <v>4.870839034968423</v>
+        <v>-4.870839034968423</v>
       </c>
     </row>
     <row r="4">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02834535547777438</v>
+        <v>-0.02834535547777438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05316140196349178</v>
+        <v>-0.05316140196349178</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08216743977749594</v>
+        <v>-0.08216743977749594</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09031341744432038</v>
+        <v>-0.09031341744432038</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.994740446668089</v>
+        <v>-2.994740446668089</v>
       </c>
       <c r="C9" t="n">
-        <v>3.698391045699522</v>
+        <v>-3.698391045699522</v>
       </c>
       <c r="D9" t="n">
-        <v>5.058268006858422</v>
+        <v>-5.058268006858422</v>
       </c>
       <c r="E9" t="n">
-        <v>5.252807002013347</v>
+        <v>-5.252807002013347</v>
       </c>
     </row>
     <row r="10">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02363703236971437</v>
+        <v>-0.02363703236971437</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05517834946751644</v>
+        <v>-0.05517834946751644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08146156140876658</v>
+        <v>-0.08146156140876658</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08435014655074149</v>
+        <v>-0.08435014655074149</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.378095067545527</v>
+        <v>-2.378095067545527</v>
       </c>
       <c r="C15" t="n">
-        <v>3.845459031697418</v>
+        <v>-3.845459031697418</v>
       </c>
       <c r="D15" t="n">
-        <v>5.098940907042446</v>
+        <v>-5.098940907042446</v>
       </c>
       <c r="E15" t="n">
-        <v>5.260309554578123</v>
+        <v>-5.260309554578123</v>
       </c>
     </row>
     <row r="16">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02416563323479859</v>
+        <v>-0.02416563323479859</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06014984624211256</v>
+        <v>-0.06014984624211256</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08676945962492169</v>
+        <v>-0.08676945962492169</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09606750510882006</v>
+        <v>-0.09606750510882006</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.421061035128051</v>
+        <v>-2.421061035128051</v>
       </c>
       <c r="C21" t="n">
-        <v>4.077231262292596</v>
+        <v>-4.077231262292596</v>
       </c>
       <c r="D21" t="n">
-        <v>5.204443936869676</v>
+        <v>-5.204443936869676</v>
       </c>
       <c r="E21" t="n">
-        <v>5.770950675466422</v>
+        <v>-5.770950675466422</v>
       </c>
     </row>
     <row r="22">

--- a/output/part3/6. out_of_sample_vw_sheet.xlsx
+++ b/output/part3/6. out_of_sample_vw_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01249574383786259</v>
+        <v>0.003397341679187313</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03910123905779159</v>
+        <v>0.005060226800726117</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06842745865230829</v>
+        <v>0.005880069239839422</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.09397004128856955</v>
+        <v>0.005935788986519947</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.788489612291358</v>
+        <v>1.533100060524297</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.962844733051786</v>
+        <v>2.730250707311016</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.196252988628872</v>
+        <v>3.838105272924532</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.870839034968423</v>
+        <v>4.513695152992129</v>
       </c>
     </row>
     <row r="4">
@@ -500,17 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02232250994721651</v>
+        <v>-0.009824086724663483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04280943096377269</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07885429771535762</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1278728815138357</v>
-      </c>
+        <v>-0.01215371797881776</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -519,17 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.142691278706617</v>
+        <v>-2.511590027354631</v>
       </c>
       <c r="C5" t="n">
-        <v>2.703941067385544</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.672841105012866</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.442738492671213</v>
-      </c>
+        <v>-3.179224072623439</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -538,17 +530,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009826766109353917</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.003708191905981103</v>
-      </c>
+        <v>0.0003739926898596067</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>0.01042683906304935</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03390284022526607</v>
-      </c>
+        <v>-0.007122992673758478</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -557,17 +545,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7679260737834829</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1687046602852688</v>
-      </c>
+        <v>0.08580150919415963</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.3559814737500963</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.89379374821146</v>
-      </c>
+        <v>-1.752827438913984</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -576,16 +560,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02834535547777438</v>
+        <v>0.008165328254763271</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.05316140196349178</v>
+        <v>0.007032806108901811</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.08216743977749594</v>
+        <v>0.007338361278754536</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09031341744432038</v>
+        <v>0.005928761921112338</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +579,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.994740446668089</v>
+        <v>2.885206247699012</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.698391045699522</v>
+        <v>3.458849286189286</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.058268006858422</v>
+        <v>4.756818425555082</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.252807002013347</v>
+        <v>4.871914683516339</v>
       </c>
     </row>
     <row r="10">
@@ -614,17 +598,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01949578685500568</v>
+        <v>-0.008855798268871057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04087477311019151</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.07986596448181214</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1420698794203939</v>
-      </c>
+        <v>-0.01172040886061532</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -633,17 +613,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.861816196536671</v>
+        <v>-2.246623680712763</v>
       </c>
       <c r="C11" t="n">
-        <v>2.572891473260643</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.5927587054346</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.59308856427193</v>
-      </c>
+        <v>-3.068733526964793</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -652,17 +628,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0088495686227687</v>
+        <v>-0.006952026373694971</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01228662885330027</v>
+        <v>-0.01068788666429326</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002301475295683773</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.05175646197607345</v>
-      </c>
+        <v>-0.008176746263975057</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,17 +645,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.6123868323266419</v>
+        <v>-1.310774187180516</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5278439929293341</v>
+        <v>-1.975209557545742</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07687556539539855</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.334666690045234</v>
-      </c>
+        <v>-2.109753324264922</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -690,16 +662,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02363703236971437</v>
+        <v>0.006401444703493888</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05517834946751644</v>
+        <v>0.007379937413733258</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.08146156140876658</v>
+        <v>0.007351262216361159</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08435014655074149</v>
+        <v>0.005638523698822219</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +681,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.378095067545527</v>
+        <v>2.071757768678078</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.845459031697418</v>
+        <v>3.606705359259601</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.098940907042446</v>
+        <v>4.840882952723406</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.260309554578123</v>
+        <v>4.786377614314292</v>
       </c>
     </row>
     <row r="16">
@@ -728,17 +700,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0204021224970616</v>
+        <v>-0.009212670453859604</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0424392714254145</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.08214746282246994</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1458726215124733</v>
-      </c>
+        <v>-0.01236815867227868</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -747,17 +715,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.923077120878641</v>
+        <v>-2.305547223198694</v>
       </c>
       <c r="C17" t="n">
-        <v>2.604042142790751</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.629580128221904</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.642333696422907</v>
-      </c>
+        <v>-3.112649879175956</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -766,16 +730,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.003234909872652765</v>
+        <v>-0.005321318143397036</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01273907804210194</v>
+        <v>-0.01023302863420526</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0006859014137033607</v>
+        <v>-0.007481742676284792</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06152247496173186</v>
+        <v>-0.00235109639791297</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +749,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2120467311158539</v>
+        <v>-0.9861119719109196</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5462923430460981</v>
+        <v>-1.956883898333945</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02279384610113273</v>
+        <v>-1.967730362415597</v>
       </c>
       <c r="E19" t="n">
-        <v>1.608233340383662</v>
+        <v>-0.7436538190882448</v>
       </c>
     </row>
     <row r="20">
@@ -804,16 +768,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02416563323479859</v>
+        <v>0.00659235594305914</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06014984624211256</v>
+        <v>0.008101624932892503</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.08676945962492169</v>
+        <v>0.007750688364177777</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.09606750510882006</v>
+        <v>0.006350500135489026</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +787,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-2.421061035128051</v>
+        <v>2.138047777371845</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.077231262292596</v>
+        <v>3.834875614454537</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.204443936869676</v>
+        <v>4.855638079197258</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.770950675466422</v>
+        <v>5.032686349931778</v>
       </c>
     </row>
     <row r="22">
@@ -842,17 +806,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02320988235774322</v>
+        <v>-0.01014972583053267</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04790312607780695</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.09002760745286047</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1518145659849465</v>
-      </c>
+        <v>-0.01333983249292729</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -861,17 +821,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.170315330436634</v>
+        <v>-2.52614267841462</v>
       </c>
       <c r="C23" t="n">
-        <v>2.881130187426011</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.946103165153371</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.910104337621701</v>
-      </c>
+        <v>-3.325316466907414</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -880,16 +836,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.000955750877055367</v>
+        <v>-0.004493840652280583</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0122467201643056</v>
+        <v>-0.01031677158639364</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003258147827938778</v>
+        <v>-0.007749540885006581</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05574706087612644</v>
+        <v>-0.003238046131010818</v>
       </c>
     </row>
     <row r="25">
@@ -899,16 +855,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.06267323748035027</v>
+        <v>-0.8272399589667041</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5127240535419405</v>
+        <v>-1.929615649771915</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1044313638582801</v>
+        <v>-1.958322078928385</v>
       </c>
       <c r="E25" t="n">
-        <v>1.428623857668076</v>
+        <v>-1.037005651016436</v>
       </c>
     </row>
   </sheetData>

--- a/output/part3/6. out_of_sample_vw_sheet.xlsx
+++ b/output/part3/6. out_of_sample_vw_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.003397341679187313</v>
+        <v>0.005699780259004132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005060226800726117</v>
+        <v>0.004815947175593493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005880069239839422</v>
+        <v>0.006019207552184639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005935788986519947</v>
+        <v>0.00695184952048763</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.533100060524297</v>
+        <v>1.739704219956449</v>
       </c>
       <c r="C3" t="n">
-        <v>2.730250707311016</v>
+        <v>2.089661935040025</v>
       </c>
       <c r="D3" t="n">
-        <v>3.838105272924532</v>
+        <v>3.093403766648005</v>
       </c>
       <c r="E3" t="n">
-        <v>4.513695152992129</v>
+        <v>3.804266060556011</v>
       </c>
     </row>
     <row r="4">
@@ -500,13 +500,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.009824086724663483</v>
+        <v>-0.003397341679187313</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01215371797881776</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>-0.005060226800726117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.005880069239839422</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.005935788986519947</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -515,13 +519,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.511590027354631</v>
+        <v>-1.533100060524297</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.179224072623439</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>-2.730250707311016</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3.838105272924532</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4.513695152992129</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -530,13 +538,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003739926898596067</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>-0.0001868963237655583</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0009864865843146812</v>
+      </c>
       <c r="D6" t="n">
-        <v>-0.007122992673758478</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>-0.00559623650165808</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.001881410720966518</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,13 +557,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08580150919415963</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>-0.16805332308191</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4010659441796154</v>
+      </c>
       <c r="D7" t="n">
-        <v>-1.752827438913984</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>-1.807871582119023</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.5492005480496613</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -560,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008165328254763271</v>
+        <v>0.004785687961972761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007032806108901811</v>
+        <v>0.00452641617384427</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007338361278754536</v>
+        <v>0.005986258223583007</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005928761921112338</v>
+        <v>0.007600139250810986</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.885206247699012</v>
+        <v>1.457869192700978</v>
       </c>
       <c r="C9" t="n">
-        <v>3.458849286189286</v>
+        <v>1.95993084498245</v>
       </c>
       <c r="D9" t="n">
-        <v>4.756818425555082</v>
+        <v>2.976728176949976</v>
       </c>
       <c r="E9" t="n">
-        <v>4.871914683516339</v>
+        <v>3.897709540138819</v>
       </c>
     </row>
     <row r="10">
@@ -598,13 +614,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.008855798268871057</v>
+        <v>-0.008165328254763271</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01172040886061532</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+        <v>-0.007032806108901811</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.007338361278754536</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.005928761921112338</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -613,13 +633,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.246623680712763</v>
+        <v>-2.885206247699012</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.068733526964793</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+        <v>-3.458849286189286</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.756818425555082</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4.871914683516339</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -628,15 +652,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.006952026373694971</v>
+        <v>-0.002162129197188976</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01068788666429326</v>
+        <v>-0.005996239352825823</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008176746263975057</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>-0.006359798070396438</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.001448461190821408</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -645,15 +671,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.310774187180516</v>
+        <v>-1.538323721476352</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.975209557545742</v>
+        <v>-2.061491092116992</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.109753324264922</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>-2.163517623739851</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.4309032168234385</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -662,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006401444703493888</v>
+        <v>0.005055430241886743</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007379937413733258</v>
+        <v>0.004683093404372679</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007351262216361159</v>
+        <v>0.006187681801526428</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005638523698822219</v>
+        <v>0.007856985027583507</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.071757768678078</v>
+        <v>1.521471578969507</v>
       </c>
       <c r="C15" t="n">
-        <v>3.606705359259601</v>
+        <v>1.978462176213194</v>
       </c>
       <c r="D15" t="n">
-        <v>4.840882952723406</v>
+        <v>3.018251838362525</v>
       </c>
       <c r="E15" t="n">
-        <v>4.786377614314292</v>
+        <v>3.969858075212485</v>
       </c>
     </row>
     <row r="16">
@@ -700,13 +728,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.009212670453859604</v>
+        <v>-0.006401444703493888</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01236815867227868</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+        <v>-0.007379937413733258</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.007351262216361159</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.005638523698822219</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -715,13 +747,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.305547223198694</v>
+        <v>-2.071757768678078</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.112649879175956</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+        <v>-3.606705359259601</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.840882952723406</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-4.786377614314292</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -730,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005321318143397036</v>
+        <v>-0.001762858819559474</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01023302863420526</v>
+        <v>-0.005698897265180042</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.007481742676284792</v>
+        <v>-0.005823424256875306</v>
       </c>
       <c r="E18" t="n">
         <v>-0.00235109639791297</v>
@@ -749,13 +785,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.9861119719109196</v>
+        <v>-1.253030264629352</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.956883898333945</v>
+        <v>-2.042743421186345</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.967730362415597</v>
+        <v>-2.02158949058392</v>
       </c>
       <c r="E19" t="n">
         <v>-0.7436538190882448</v>
@@ -768,16 +804,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00659235594305914</v>
+        <v>0.005987230815273466</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008101624932892503</v>
+        <v>0.005528347939844945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007750688364177777</v>
+        <v>0.007016831334659212</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006350500135489026</v>
+        <v>0.008495335097801295</v>
       </c>
     </row>
     <row r="21">
@@ -787,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.138047777371845</v>
+        <v>1.787900845620036</v>
       </c>
       <c r="C21" t="n">
-        <v>3.834875614454537</v>
+        <v>2.291499481653046</v>
       </c>
       <c r="D21" t="n">
-        <v>4.855638079197258</v>
+        <v>3.387198153959176</v>
       </c>
       <c r="E21" t="n">
-        <v>5.032686349931778</v>
+        <v>4.388967040534051</v>
       </c>
     </row>
     <row r="22">
@@ -806,13 +842,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01014972583053267</v>
+        <v>-0.00659235594305914</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01333983249292729</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+        <v>-0.008101624932892503</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.007750688364177777</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.006350500135489026</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -821,13 +861,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.52614267841462</v>
+        <v>-2.138047777371845</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.325316466907414</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>-3.834875614454537</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.855638079197258</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-5.032686349931778</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -836,13 +880,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004493840652280583</v>
+        <v>-0.001551833373864251</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01031677158639364</v>
+        <v>-0.005756211124086755</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.007749540885006581</v>
+        <v>-0.006040061554452301</v>
       </c>
       <c r="E24" t="n">
         <v>-0.003238046131010818</v>
@@ -855,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.8272399589667041</v>
+        <v>-1.091452332029469</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.929615649771915</v>
+        <v>-2.016271703776692</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.958322078928385</v>
+        <v>-2.014629965563369</v>
       </c>
       <c r="E25" t="n">
         <v>-1.037005651016436</v>
